--- a/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="328">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1009,6 +1009,15 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1889,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1932,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1996,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2056,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2122,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2185,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2283,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2342,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2407,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2450,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2525,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2711,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2777,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,7 +2835,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2901,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2957,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3032,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3075,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3141,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3197,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3295,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3358,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3424,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3793,12 +3802,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K540"/>
+  <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3540" topLeftCell="A431" activePane="bottomLeft"/>
+      <pane ySplit="3540" topLeftCell="A458" activePane="bottomLeft"/>
       <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="K438" sqref="K438"/>
+      <selection pane="bottomLeft" activeCell="K475" sqref="K475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3959,7 +3968,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>165.86200000000011</v>
+        <v>167.11200000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3969,7 +3978,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>266.5</v>
+        <v>269.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14213,13 +14222,15 @@
         <v>45138</v>
       </c>
       <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D468" s="39"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
@@ -14231,13 +14242,15 @@
         <v>45169</v>
       </c>
       <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D469" s="39"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
@@ -14249,13 +14262,15 @@
         <v>45199</v>
       </c>
       <c r="B470" s="20"/>
-      <c r="C470" s="13"/>
+      <c r="C470" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D470" s="39"/>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G470" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H470" s="39"/>
       <c r="I470" s="9"/>
@@ -14266,45 +14281,63 @@
       <c r="A471" s="40">
         <v>45230</v>
       </c>
-      <c r="B471" s="15"/>
-      <c r="C471" s="41"/>
+      <c r="B471" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D471" s="42"/>
       <c r="E471" s="51"/>
       <c r="F471" s="15"/>
-      <c r="G471" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H471" s="42"/>
+      <c r="G471" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H471" s="42">
+        <v>2</v>
+      </c>
       <c r="I471" s="51"/>
       <c r="J471" s="12"/>
-      <c r="K471" s="15"/>
+      <c r="K471" s="15" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45260</v>
       </c>
-      <c r="B472" s="20"/>
-      <c r="C472" s="13"/>
+      <c r="B472" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C472" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D472" s="39"/>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G472" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="20"/>
+      <c r="K472" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>45291</v>
       </c>
-      <c r="B473" s="20"/>
+      <c r="B473" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C473" s="13"/>
-      <c r="D473" s="39"/>
+      <c r="D473" s="39">
+        <v>1</v>
+      </c>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
       <c r="G473" s="13" t="str">
@@ -14314,15 +14347,19 @@
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
-      <c r="K473" s="20"/>
+      <c r="K473" s="48">
+        <v>45267</v>
+      </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B474" s="20"/>
+      <c r="A474" s="40"/>
+      <c r="B474" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C474" s="13"/>
-      <c r="D474" s="39"/>
+      <c r="D474" s="39">
+        <v>4</v>
+      </c>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
       <c r="G474" s="13" t="str">
@@ -14332,13 +14369,13 @@
       <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
-      <c r="K474" s="20"/>
+      <c r="K474" s="48"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B475" s="20"/>
+      <c r="A475" s="40"/>
+      <c r="B475" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C475" s="13"/>
       <c r="D475" s="39"/>
       <c r="E475" s="9"/>
@@ -14347,14 +14384,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H475" s="39"/>
+      <c r="H475" s="39">
+        <v>1</v>
+      </c>
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
-      <c r="K475" s="20"/>
+      <c r="K475" s="48">
+        <v>45275</v>
+      </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="40">
-        <v>45382</v>
+      <c r="A476" s="47" t="s">
+        <v>325</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -14372,7 +14413,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>45412</v>
+        <v>45322</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -14390,7 +14431,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>45443</v>
+        <v>45351</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -14408,7 +14449,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14426,7 +14467,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
-        <v>45504</v>
+        <v>45412</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14444,7 +14485,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
-        <v>45535</v>
+        <v>45443</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14462,7 +14503,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
-        <v>45565</v>
+        <v>45473</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14480,7 +14521,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14498,7 +14539,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
-        <v>45626</v>
+        <v>45535</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14516,7 +14557,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
-        <v>45657</v>
+        <v>45565</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14534,7 +14575,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
-        <v>45688</v>
+        <v>45596</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14552,7 +14593,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14570,7 +14611,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>45747</v>
+        <v>45657</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14587,8 +14628,8 @@
       <c r="K488" s="20"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="40">
-        <v>45777</v>
+      <c r="A489" s="47" t="s">
+        <v>327</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14606,7 +14647,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
-        <v>45808</v>
+        <v>45688</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14624,7 +14665,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
-        <v>45838</v>
+        <v>45716</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14642,7 +14683,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
-        <v>45869</v>
+        <v>45747</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14660,7 +14701,7 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45900</v>
+        <v>45777</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14678,7 +14719,7 @@
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45930</v>
+        <v>45808</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14696,7 +14737,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45961</v>
+        <v>45838</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14714,7 +14755,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45991</v>
+        <v>45869</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14732,7 +14773,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>46022</v>
+        <v>45900</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14750,7 +14791,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>46053</v>
+        <v>45930</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14768,7 +14809,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>46081</v>
+        <v>45961</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14786,7 +14827,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>46112</v>
+        <v>45991</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14804,7 +14845,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>46142</v>
+        <v>46022</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14822,7 +14863,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>46173</v>
+        <v>46053</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14840,7 +14881,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>46203</v>
+        <v>46081</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14858,7 +14899,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>46234</v>
+        <v>46112</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14876,7 +14917,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>46265</v>
+        <v>46142</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14894,7 +14935,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>46295</v>
+        <v>46173</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14912,7 +14953,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>46326</v>
+        <v>46203</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14930,7 +14971,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>46356</v>
+        <v>46234</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14948,7 +14989,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>46387</v>
+        <v>46265</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14966,7 +15007,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>46418</v>
+        <v>46295</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -14984,7 +15025,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>46446</v>
+        <v>46326</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15002,7 +15043,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>46477</v>
+        <v>46356</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15020,7 +15061,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>46507</v>
+        <v>46387</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15038,7 +15079,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>46538</v>
+        <v>46418</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15056,7 +15097,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>46568</v>
+        <v>46446</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15074,7 +15115,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46599</v>
+        <v>46477</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15092,7 +15133,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46630</v>
+        <v>46507</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15110,7 +15151,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46660</v>
+        <v>46538</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15128,7 +15169,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46691</v>
+        <v>46568</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15146,7 +15187,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46721</v>
+        <v>46599</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15164,7 +15205,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46752</v>
+        <v>46630</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15182,7 +15223,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46783</v>
+        <v>46660</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15200,7 +15241,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46812</v>
+        <v>46691</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15218,7 +15259,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46843</v>
+        <v>46721</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15236,7 +15277,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46873</v>
+        <v>46752</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15254,7 +15295,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46904</v>
+        <v>46783</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15272,7 +15313,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46934</v>
+        <v>46812</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15290,7 +15331,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46965</v>
+        <v>46843</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15308,7 +15349,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46996</v>
+        <v>46873</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15326,7 +15367,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>47026</v>
+        <v>46904</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15344,7 +15385,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>47057</v>
+        <v>46934</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15362,7 +15403,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>47087</v>
+        <v>46965</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15380,7 +15421,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>47118</v>
+        <v>46996</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15398,7 +15439,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>47149</v>
+        <v>47026</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15416,7 +15457,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>47177</v>
+        <v>47057</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15434,7 +15475,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>47208</v>
+        <v>47087</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15452,7 +15493,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>47238</v>
+        <v>47118</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15470,7 +15511,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>47269</v>
+        <v>47149</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15488,7 +15529,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>47299</v>
+        <v>47177</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15506,7 +15547,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>47330</v>
+        <v>47208</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15521,6 +15562,78 @@
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" s="40">
+        <v>47238</v>
+      </c>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40">
+        <v>47269</v>
+      </c>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="40">
+        <v>47299</v>
+      </c>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40">
+        <v>47330</v>
+      </c>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
